--- a/resource/links.xlsx
+++ b/resource/links.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13050" windowHeight="6525"/>
   </bookViews>
   <sheets>
-    <sheet name="status" r:id="rId1" sheetId="1"/>
+    <sheet name="status" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Working Likns</t>
   </si>
@@ -86,13 +87,126 @@
   </si>
   <si>
     <t>http://spree.shiftedtech.com/?page=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void brokenLinkTest(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        driver.navigate().to("http://spree.shiftedtech.com/");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        List&lt;WebElement&gt; links=driver.findElements(By.tagName("a"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Total links are "+links.size());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for(i=0;i&lt;links.size();i++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            WebElement ele= links.get(i);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            String url=ele.getAttribute("href");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            try {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                verifyLinkActive(url);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            } catch (IOException e) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                e.printStackTrace();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            } catch (InvalidFormatException e) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void verifyLinkActive(String linkUrl) throws IOException, EncryptedDocumentException, InvalidFormatException {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FileInputStream fileInputStream = new FileInputStream("C:\\Users\\ShiftTeacher\\eclipse-workspace\\ssnb6.bdd\\resource\\links.xlsx");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Workbook workbook = WorkbookFactory.create(fileInputStream);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Sheet sheet = workbook.getSheet("status");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sheet.createRow(0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sheet.getRow(0).createCell(0).setCellValue("Working Likns");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        try {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            URL url = new URL(linkUrl);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HttpURLConnection httpURLConnect = (HttpURLConnection) url.openConnection();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            httpURLConnect.setConnectTimeout(3000);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            httpURLConnect.connect();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (httpURLConnect.getResponseCode() == 200) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                System.out.println(linkUrl + " - " + httpURLConnect.getResponseMessage());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                sheet.createRow(i+2).createCell(0).setCellValue(linkUrl + " - " + httpURLConnect.getResponseMessage());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (httpURLConnect.getResponseCode() == HttpURLConnection.HTTP_NOT_FOUND) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                System.out.println(linkUrl + " - " + httpURLConnect.getResponseMessage() + " - " + HttpURLConnection.HTTP_NOT_FOUND);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } catch (Exception e) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FileOutputStream fileOutputStream = new FileOutputStream("C:\\Users\\ShiftTeacher\\eclipse-workspace\\ssnb6.bdd\\resource\\links.xlsx");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        workbook.write(fileOutputStream);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -120,16 +234,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -138,10 +252,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -297,7 +411,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -306,13 +420,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -322,7 +436,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -331,7 +445,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,7 +454,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -350,12 +464,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -386,7 +500,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -405,7 +519,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -418,215 +532,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
         <v>2</v>
       </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="I44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="I45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9">
+      <c r="I71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9">
+      <c r="I72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9">
+      <c r="I74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9">
+      <c r="I76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9">
+      <c r="I78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9">
+      <c r="I80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9">
+      <c r="I81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9">
+      <c r="I82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9">
+      <c r="I84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9">
+      <c r="I85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9">
+      <c r="I86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9">
+      <c r="I87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9">
+      <c r="I88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9">
+      <c r="I91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9">
+      <c r="I93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9">
+      <c r="I95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9">
+      <c r="I96" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9">
+      <c r="I97" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9">
+      <c r="I98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9">
+      <c r="I99" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>